--- a/data/shedding/sheddingTitersGivenPositive.xlsx
+++ b/data/shedding/sheddingTitersGivenPositive.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfamulare\Dropbox (IDM)\VaccineNetworkTransmissionPaper\data\shedding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfamulare\Dropbox (IDM)\VaccineNetworkTransmissionPaper\revisedSupplement\data\shedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Shed_GMT_time" sheetId="1" r:id="rId1"/>
@@ -916,26 +916,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="S19" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="8.85546875" style="4" customWidth="1"/>
-    <col min="3" max="27" width="6.7109375" style="4" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="5"/>
+    <col min="2" max="2" width="8.88671875" style="4" customWidth="1"/>
+    <col min="3" max="27" width="6.6640625" style="4" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" style="3" customWidth="1"/>
     <col min="30" max="30" width="51" style="2" customWidth="1"/>
-    <col min="31" max="31" width="16.28515625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="2"/>
+    <col min="31" max="31" width="16.33203125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" style="2"/>
     <col min="33" max="33" width="13" style="2" customWidth="1"/>
-    <col min="34" max="34" width="16.140625" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="34" max="34" width="16.109375" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>42</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="AM2" s="17"/>
       <c r="AN2" s="17"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>40</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="AM3" s="17"/>
       <c r="AN3" s="17"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>46</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>36</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="AM5" s="17"/>
       <c r="AN5" s="17"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>34</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="AM6" s="17"/>
       <c r="AN6" s="17"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>28</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>12</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>10</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="AM9" s="17"/>
       <c r="AN9" s="17"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>15</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="AM10" s="17"/>
       <c r="AN10" s="17"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>34</v>
       </c>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="AN11" s="17"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>12</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="AN12" s="17"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>52</v>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="AN13" s="17"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>42</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="AL14" s="17"/>
       <c r="AM14" s="17"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>85</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>6</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>86</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="AM20" s="17"/>
       <c r="AN20" s="17"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>154</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>96</v>
       </c>
       <c r="AB21" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AC21" s="3">
         <v>2</v>
@@ -2156,7 +2156,7 @@
       <c r="AM21" s="17"/>
       <c r="AN21" s="17"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>170</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>96</v>
       </c>
       <c r="AB22" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AC22" s="3">
         <v>2</v>
@@ -2203,7 +2203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>166</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>96</v>
       </c>
       <c r="AB23" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AC23" s="3">
         <v>2</v>
@@ -2250,7 +2250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>150</v>
       </c>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="AL24" s="17"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>140</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="AL25" s="17"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>7</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="AL26" s="17"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>146</v>
       </c>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="AL27" s="17"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>141</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="AM28" s="17"/>
       <c r="AN28" s="17"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.4">
       <c r="AH29" s="17"/>
       <c r="AI29" s="17"/>
       <c r="AJ29" s="17"/>
@@ -2501,7 +2501,7 @@
       <c r="AM29" s="17"/>
       <c r="AN29" s="17"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.4">
       <c r="AH30" s="17"/>
       <c r="AI30" s="17"/>
       <c r="AJ30" s="17"/>
@@ -2510,7 +2510,7 @@
       <c r="AM30" s="17"/>
       <c r="AN30" s="17"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.4">
       <c r="AH31" s="17"/>
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
@@ -2519,7 +2519,7 @@
       <c r="AM31" s="17"/>
       <c r="AN31" s="17"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.4">
       <c r="AH32" s="17"/>
       <c r="AI32" s="17"/>
       <c r="AJ32" s="17"/>
@@ -2528,7 +2528,7 @@
       <c r="AM32" s="17"/>
       <c r="AN32" s="17"/>
     </row>
-    <row r="33" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH33" s="17"/>
       <c r="AI33" s="17"/>
       <c r="AJ33" s="17"/>
@@ -2537,7 +2537,7 @@
       <c r="AM33" s="17"/>
       <c r="AN33" s="17"/>
     </row>
-    <row r="34" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH34" s="17"/>
       <c r="AI34" s="17"/>
       <c r="AJ34" s="17"/>
@@ -2546,7 +2546,7 @@
       <c r="AM34" s="17"/>
       <c r="AN34" s="17"/>
     </row>
-    <row r="35" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
@@ -2555,7 +2555,7 @@
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
     </row>
-    <row r="36" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
       <c r="AJ36" s="17"/>
@@ -2564,7 +2564,7 @@
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
     </row>
-    <row r="37" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH37" s="17"/>
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
@@ -2573,7 +2573,7 @@
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
     </row>
-    <row r="38" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH38" s="17"/>
       <c r="AI38" s="17"/>
       <c r="AJ38" s="17"/>
@@ -2582,7 +2582,7 @@
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
     </row>
-    <row r="39" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH39" s="17"/>
       <c r="AI39" s="17"/>
       <c r="AJ39" s="17"/>
@@ -2591,7 +2591,7 @@
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
     </row>
-    <row r="40" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH40" s="17"/>
       <c r="AI40" s="17"/>
       <c r="AJ40" s="17"/>
@@ -2600,7 +2600,7 @@
       <c r="AM40" s="17"/>
       <c r="AN40" s="17"/>
     </row>
-    <row r="41" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
       <c r="AJ41" s="17"/>
@@ -2609,7 +2609,7 @@
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
     </row>
-    <row r="42" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH42" s="17"/>
       <c r="AI42" s="17"/>
       <c r="AJ42" s="17"/>
@@ -2618,7 +2618,7 @@
       <c r="AM42" s="17"/>
       <c r="AN42" s="17"/>
     </row>
-    <row r="43" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH43" s="17"/>
       <c r="AI43" s="17"/>
       <c r="AJ43" s="17"/>
@@ -2627,7 +2627,7 @@
       <c r="AM43" s="17"/>
       <c r="AN43" s="17"/>
     </row>
-    <row r="44" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH44" s="17"/>
       <c r="AI44" s="17"/>
       <c r="AJ44" s="17"/>
@@ -2636,7 +2636,7 @@
       <c r="AM44" s="17"/>
       <c r="AN44" s="17"/>
     </row>
-    <row r="45" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH45" s="17"/>
       <c r="AI45" s="17"/>
       <c r="AJ45" s="17"/>
@@ -2645,7 +2645,7 @@
       <c r="AM45" s="17"/>
       <c r="AN45" s="17"/>
     </row>
-    <row r="46" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH46" s="17"/>
       <c r="AI46" s="17"/>
       <c r="AJ46" s="17"/>
@@ -2654,7 +2654,7 @@
       <c r="AM46" s="17"/>
       <c r="AN46" s="17"/>
     </row>
-    <row r="47" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH47" s="17"/>
       <c r="AI47" s="17"/>
       <c r="AJ47" s="17"/>
@@ -2663,7 +2663,7 @@
       <c r="AM47" s="17"/>
       <c r="AN47" s="17"/>
     </row>
-    <row r="48" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH48" s="17"/>
       <c r="AI48" s="17"/>
       <c r="AJ48" s="17"/>
@@ -2672,7 +2672,7 @@
       <c r="AM48" s="17"/>
       <c r="AN48" s="17"/>
     </row>
-    <row r="49" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH49" s="17"/>
       <c r="AI49" s="17"/>
       <c r="AJ49" s="17"/>
@@ -2681,7 +2681,7 @@
       <c r="AM49" s="17"/>
       <c r="AN49" s="17"/>
     </row>
-    <row r="50" spans="34:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="34:40" x14ac:dyDescent="0.4">
       <c r="AH50" s="17"/>
       <c r="AI50" s="17"/>
       <c r="AJ50" s="17"/>
@@ -2690,76 +2690,76 @@
       <c r="AM50" s="17"/>
       <c r="AN50" s="17"/>
     </row>
-    <row r="237" spans="30:30" x14ac:dyDescent="0.35">
+    <row r="237" spans="30:30" x14ac:dyDescent="0.4">
       <c r="AD237" s="7"/>
     </row>
-    <row r="238" spans="30:30" x14ac:dyDescent="0.35">
+    <row r="238" spans="30:30" x14ac:dyDescent="0.4">
       <c r="AD238" s="7"/>
     </row>
-    <row r="239" spans="30:30" x14ac:dyDescent="0.35">
+    <row r="239" spans="30:30" x14ac:dyDescent="0.4">
       <c r="AD239" s="7"/>
     </row>
-    <row r="240" spans="30:30" x14ac:dyDescent="0.35">
+    <row r="240" spans="30:30" x14ac:dyDescent="0.4">
       <c r="AD240" s="7"/>
     </row>
-    <row r="241" spans="30:30" x14ac:dyDescent="0.35">
+    <row r="241" spans="30:30" x14ac:dyDescent="0.4">
       <c r="AD241" s="7"/>
     </row>
-    <row r="242" spans="30:30" x14ac:dyDescent="0.35">
+    <row r="242" spans="30:30" x14ac:dyDescent="0.4">
       <c r="AD242" s="7"/>
     </row>
-    <row r="446" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="446" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC446" s="6"/>
     </row>
-    <row r="447" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="447" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC447" s="6"/>
     </row>
-    <row r="448" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="448" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC448" s="6"/>
     </row>
-    <row r="449" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="449" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC449" s="6"/>
     </row>
-    <row r="450" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="450" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC450" s="6"/>
     </row>
-    <row r="451" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="451" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC451" s="6"/>
     </row>
-    <row r="452" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="452" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC452" s="6"/>
     </row>
-    <row r="453" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="453" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC453" s="6"/>
     </row>
-    <row r="454" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="454" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC454" s="6"/>
     </row>
-    <row r="455" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="455" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC455" s="6"/>
     </row>
-    <row r="456" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="456" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC456" s="6"/>
     </row>
-    <row r="457" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="457" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC457" s="6"/>
     </row>
-    <row r="458" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="458" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC458" s="6"/>
     </row>
-    <row r="459" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="459" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC459" s="6"/>
     </row>
-    <row r="460" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="460" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC460" s="6"/>
     </row>
-    <row r="461" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="461" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC461" s="6"/>
     </row>
-    <row r="462" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="462" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC462" s="6"/>
     </row>
-    <row r="463" spans="29:29" x14ac:dyDescent="0.35">
+    <row r="463" spans="29:29" x14ac:dyDescent="0.4">
       <c r="AC463" s="6"/>
     </row>
   </sheetData>
